--- a/data/spring-cloud-shop/shop-risk-api_structure.xlsx
+++ b/data/spring-cloud-shop/shop-risk-api_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="130">
   <si>
     <t>Class Name</t>
   </si>
@@ -264,13 +264,13 @@
     <t>phone</t>
   </si>
   <si>
+    <t>state</t>
+  </si>
+  <si>
     <t>serialVersionUID</t>
   </si>
   <si>
     <t>long</t>
-  </si>
-  <si>
-    <t>state</t>
   </si>
   <si>
     <t>log</t>
@@ -2442,7 +2442,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2640,10 +2640,10 @@
         <v>30</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19">
@@ -2651,7 +2651,7 @@
         <v>30</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>119</v>
@@ -2662,10 +2662,10 @@
         <v>30</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21">
@@ -2673,7 +2673,7 @@
         <v>30</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>116</v>
@@ -2684,18 +2684,18 @@
         <v>30</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>119</v>
@@ -2703,35 +2703,35 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>92</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>92</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27">
@@ -2739,7 +2739,7 @@
         <v>41</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>92</v>
@@ -2750,7 +2750,7 @@
         <v>41</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>92</v>
@@ -2761,7 +2761,7 @@
         <v>41</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>92</v>
@@ -2769,24 +2769,24 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>126</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>119</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32">
@@ -2794,10 +2794,10 @@
         <v>43</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33">
@@ -2805,10 +2805,10 @@
         <v>43</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34">
@@ -2816,10 +2816,10 @@
         <v>43</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35">
@@ -2827,10 +2827,10 @@
         <v>43</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36">
@@ -2838,10 +2838,10 @@
         <v>43</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37">
@@ -2849,10 +2849,10 @@
         <v>43</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38">
@@ -2860,10 +2860,10 @@
         <v>43</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39">
@@ -2871,7 +2871,7 @@
         <v>43</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>120</v>
@@ -2882,7 +2882,7 @@
         <v>43</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>120</v>
@@ -2890,35 +2890,35 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44">
@@ -2926,10 +2926,10 @@
         <v>53</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45">
@@ -2937,10 +2937,10 @@
         <v>53</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46">
@@ -2948,10 +2948,10 @@
         <v>53</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47">
@@ -2959,10 +2959,10 @@
         <v>53</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48">
@@ -2970,10 +2970,10 @@
         <v>53</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49">
@@ -2981,10 +2981,10 @@
         <v>53</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50">
@@ -2992,10 +2992,10 @@
         <v>53</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51">
@@ -3003,7 +3003,7 @@
         <v>53</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>120</v>
@@ -3011,46 +3011,46 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56">
@@ -3058,10 +3058,10 @@
         <v>56</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57">
@@ -3069,10 +3069,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58">
@@ -3080,10 +3080,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59">
@@ -3091,18 +3091,18 @@
         <v>56</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>119</v>
@@ -3110,10 +3110,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>119</v>
@@ -3121,10 +3121,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>116</v>
@@ -3132,21 +3132,21 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>119</v>
@@ -3157,9 +3157,75 @@
         <v>72</v>
       </c>
       <c r="B65" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B71" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="C65" t="s" s="0">
+      <c r="C71" t="s" s="0">
         <v>120</v>
       </c>
     </row>
@@ -3970,7 +4036,7 @@
         <v>45</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>81</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -3978,13 +4044,13 @@
         <v>30</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>45</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>34</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
@@ -4020,13 +4086,13 @@
         <v>56</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>45</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -4034,13 +4100,13 @@
         <v>56</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>45</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>34</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10">
@@ -4048,13 +4114,13 @@
         <v>56</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>45</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>81</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
